--- a/Inputs_Data_std/Data_backupValues.xlsx
+++ b/Inputs_Data_std/Data_backupValues.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="163">
   <si>
     <t>AL_active</t>
   </si>
@@ -515,9 +515,6 @@
   </si>
   <si>
     <t>6March 31 201</t>
-  </si>
-  <si>
-    <t>earlyRet_Reduction</t>
   </si>
   <si>
     <t>C5</t>
@@ -1750,7 +1747,7 @@
   <dimension ref="A2:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,7 +1761,7 @@
         <v>105</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="10"/>
     </row>
@@ -1773,13 +1770,13 @@
         <v>106</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
         <v>156</v>
@@ -1800,7 +1797,7 @@
         <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
         <v>60</v>
@@ -1811,7 +1808,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6">
         <v>0.02</v>

--- a/Inputs_Data_std/Data_backupValues.xlsx
+++ b/Inputs_Data_std/Data_backupValues.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="164">
   <si>
     <t>AL_active</t>
   </si>
@@ -523,7 +523,10 @@
     <t>benProv_join</t>
   </si>
   <si>
-    <t>L6</t>
+    <t>ret_yos</t>
+  </si>
+  <si>
+    <t>M6</t>
   </si>
 </sst>
 </file>
@@ -1744,19 +1747,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37BA260-0255-454F-AB26-0AE6CB7672AA}">
-  <dimension ref="A2:L6"/>
+  <dimension ref="A2:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="12" width="26.85546875" customWidth="1"/>
+    <col min="4" max="13" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -1765,16 +1768,16 @@
       </c>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>161</v>
       </c>
@@ -1788,25 +1791,28 @@
         <v>54</v>
       </c>
       <c r="G5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" t="s">
         <v>55</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>58</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>59</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>60</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>161</v>
       </c>
@@ -1817,24 +1823,27 @@
         <v>0.02</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>60</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>55</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>75</v>
       </c>
-      <c r="J6">
+      <c r="K6">
+        <v>0.06</v>
+      </c>
+      <c r="L6">
         <v>0.03</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
         <v>3</v>
       </c>
     </row>
